--- a/TASK6/2d_array_Map.xlsx
+++ b/TASK6/2d_array_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iftek\Documents\GitHub\Autonomous-Electrical-Delivery-Vans\TASK6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D1279D-5D8C-49C3-8454-E114F2477E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7167D-DF5C-4C6B-BF18-46D73A99C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{76AAAB41-C9E0-4F9D-A092-2BADF16312F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="341">
   <si>
     <t>NW</t>
   </si>
@@ -1410,18 +1410,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8C05F2-A1E3-4065-B2DF-7DC771F9A4D1}">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="7" width="8.7265625" customWidth="1"/>
+    <col min="2" max="5" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1438,68 +1438,68 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1</v>
-      </c>
       <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
       <c r="AA1" t="s">
         <v>1</v>
       </c>
@@ -1507,52 +1507,16 @@
         <v>1</v>
       </c>
       <c r="AC1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AD1" t="s">
         <v>1</v>
       </c>
       <c r="AE1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1560,130 +1524,94 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>67</v>
-      </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="AD2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AE2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1691,130 +1619,94 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="W3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="AD3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AE3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1822,130 +1714,94 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Z4" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1962,68 +1818,68 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" t="s">
         <v>52</v>
       </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>44</v>
-      </c>
       <c r="AA5" t="s">
         <v>44</v>
       </c>
@@ -2031,52 +1887,16 @@
         <v>44</v>
       </c>
       <c r="AC5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AD5" t="s">
         <v>44</v>
       </c>
       <c r="AE5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2084,130 +1904,94 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" t="s">
         <v>51</v>
       </c>
-      <c r="P6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>124</v>
-      </c>
-      <c r="R6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" t="s">
-        <v>122</v>
-      </c>
-      <c r="U6" t="s">
-        <v>122</v>
-      </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="W6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="X6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Y6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Z6" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="AA6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AB6" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AC6" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="AD6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AE6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2215,130 +1999,94 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" t="s">
         <v>51</v>
       </c>
-      <c r="P7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" t="s">
-        <v>120</v>
-      </c>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="W7" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="X7" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="Z7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="AA7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AB7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AE7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2346,130 +2094,94 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" t="s">
         <v>51</v>
       </c>
-      <c r="P8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" t="s">
-        <v>118</v>
-      </c>
-      <c r="S8" t="s">
-        <v>118</v>
-      </c>
-      <c r="T8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U8" t="s">
-        <v>117</v>
-      </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="W8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="X8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Y8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Z8" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="AA8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AB8" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AC8" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="AD8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2486,68 +2198,68 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s">
         <v>55</v>
       </c>
-      <c r="P9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" t="s">
-        <v>46</v>
-      </c>
       <c r="V9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s">
         <v>53</v>
       </c>
-      <c r="W9" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>46</v>
-      </c>
       <c r="AA9" t="s">
         <v>46</v>
       </c>
@@ -2555,52 +2267,16 @@
         <v>46</v>
       </c>
       <c r="AC9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AD9" t="s">
         <v>46</v>
       </c>
       <c r="AE9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2608,130 +2284,94 @@
         <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
         <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O10" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" t="s">
+        <v>193</v>
+      </c>
+      <c r="S10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" t="s">
         <v>51</v>
       </c>
-      <c r="P10" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>189</v>
-      </c>
-      <c r="R10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S10" t="s">
-        <v>190</v>
-      </c>
-      <c r="T10" t="s">
-        <v>191</v>
-      </c>
-      <c r="U10" t="s">
-        <v>191</v>
-      </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="X10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z10" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="AA10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AB10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AC10" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="AD10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AE10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2739,130 +2379,94 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>203</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" t="s">
         <v>51</v>
       </c>
-      <c r="P11" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>201</v>
-      </c>
-      <c r="R11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" t="s">
-        <v>202</v>
-      </c>
-      <c r="U11" t="s">
-        <v>202</v>
-      </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="W11" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="X11" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="Z11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="AA11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AB11" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AE11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2870,130 +2474,94 @@
         <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K12" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="N12" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="O12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" t="s">
+        <v>213</v>
+      </c>
+      <c r="S12" t="s">
+        <v>213</v>
+      </c>
+      <c r="T12" t="s">
+        <v>214</v>
+      </c>
+      <c r="U12" t="s">
         <v>51</v>
       </c>
-      <c r="P12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>209</v>
-      </c>
-      <c r="R12" t="s">
-        <v>210</v>
-      </c>
-      <c r="S12" t="s">
-        <v>210</v>
-      </c>
-      <c r="T12" t="s">
-        <v>211</v>
-      </c>
-      <c r="U12" t="s">
-        <v>211</v>
-      </c>
       <c r="V12" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="W12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="X12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Y12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Z12" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="AA12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AB12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AC12" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="AD12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AE12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3010,68 +2578,68 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
       </c>
       <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
         <v>54</v>
       </c>
-      <c r="P13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" t="s">
-        <v>44</v>
-      </c>
       <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" t="s">
         <v>52</v>
       </c>
-      <c r="W13" t="s">
-        <v>44</v>
-      </c>
-      <c r="X13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>44</v>
-      </c>
       <c r="AA13" t="s">
         <v>44</v>
       </c>
@@ -3079,52 +2647,16 @@
         <v>44</v>
       </c>
       <c r="AC13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AD13" t="s">
         <v>44</v>
       </c>
       <c r="AE13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3132,130 +2664,94 @@
         <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
         <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K14" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>227</v>
+      </c>
+      <c r="R14" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" t="s">
+        <v>228</v>
+      </c>
+      <c r="T14" t="s">
+        <v>229</v>
+      </c>
+      <c r="U14" t="s">
         <v>51</v>
       </c>
-      <c r="P14" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>224</v>
-      </c>
-      <c r="R14" t="s">
-        <v>225</v>
-      </c>
-      <c r="S14" t="s">
-        <v>225</v>
-      </c>
-      <c r="T14" t="s">
-        <v>226</v>
-      </c>
-      <c r="U14" t="s">
-        <v>226</v>
-      </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="W14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="X14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Y14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Z14" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="AA14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AB14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AC14" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="AD14" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AE14" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -3263,130 +2759,94 @@
         <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="M15" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
+        <v>239</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>241</v>
+      </c>
+      <c r="U15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>238</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" t="s">
-        <v>239</v>
-      </c>
-      <c r="U15" t="s">
-        <v>239</v>
-      </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="W15" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="X15" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="Z15" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AA15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB15" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AE15" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AQ15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3394,130 +2854,94 @@
         <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
         <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K16" t="s">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O16" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>252</v>
+      </c>
+      <c r="R16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S16" t="s">
+        <v>253</v>
+      </c>
+      <c r="T16" t="s">
+        <v>254</v>
+      </c>
+      <c r="U16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>249</v>
-      </c>
-      <c r="R16" t="s">
-        <v>250</v>
-      </c>
-      <c r="S16" t="s">
-        <v>250</v>
-      </c>
-      <c r="T16" t="s">
-        <v>251</v>
-      </c>
-      <c r="U16" t="s">
-        <v>251</v>
-      </c>
       <c r="V16" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="W16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="X16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Y16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Z16" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="AA16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AB16" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AC16" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="AD16" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3534,68 +2958,68 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
       </c>
       <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s">
         <v>53</v>
       </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s">
         <v>55</v>
       </c>
-      <c r="P17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>46</v>
-      </c>
-      <c r="R17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" t="s">
-        <v>46</v>
-      </c>
       <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" t="s">
         <v>53</v>
       </c>
-      <c r="W17" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>46</v>
-      </c>
       <c r="AA17" t="s">
         <v>46</v>
       </c>
@@ -3603,52 +3027,16 @@
         <v>46</v>
       </c>
       <c r="AC17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AD17" t="s">
         <v>46</v>
       </c>
       <c r="AE17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -3656,130 +3044,94 @@
         <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
         <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="I18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K18" t="s">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O18" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>267</v>
+      </c>
+      <c r="R18" t="s">
+        <v>268</v>
+      </c>
+      <c r="S18" t="s">
+        <v>268</v>
+      </c>
+      <c r="T18" t="s">
+        <v>269</v>
+      </c>
+      <c r="U18" t="s">
         <v>51</v>
       </c>
-      <c r="P18" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>264</v>
-      </c>
-      <c r="R18" t="s">
-        <v>265</v>
-      </c>
-      <c r="S18" t="s">
-        <v>265</v>
-      </c>
-      <c r="T18" t="s">
-        <v>266</v>
-      </c>
-      <c r="U18" t="s">
-        <v>266</v>
-      </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>270</v>
       </c>
       <c r="W18" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="X18" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Y18" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Z18" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="AA18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AB18" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AC18" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="AD18" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AE18" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3787,130 +3139,94 @@
         <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="M19" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
+        <v>279</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>281</v>
+      </c>
+      <c r="U19" t="s">
         <v>51</v>
       </c>
-      <c r="P19" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>278</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" t="s">
-        <v>279</v>
-      </c>
-      <c r="U19" t="s">
-        <v>279</v>
-      </c>
       <c r="V19" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="W19" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="Z19" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AA19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AB19" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AE19" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3918,130 +3234,94 @@
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K20" t="s">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O20" t="s">
+        <v>291</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>292</v>
+      </c>
+      <c r="R20" t="s">
+        <v>293</v>
+      </c>
+      <c r="S20" t="s">
+        <v>293</v>
+      </c>
+      <c r="T20" t="s">
+        <v>294</v>
+      </c>
+      <c r="U20" t="s">
         <v>51</v>
       </c>
-      <c r="P20" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>289</v>
-      </c>
-      <c r="R20" t="s">
-        <v>290</v>
-      </c>
-      <c r="S20" t="s">
-        <v>290</v>
-      </c>
-      <c r="T20" t="s">
-        <v>291</v>
-      </c>
-      <c r="U20" t="s">
-        <v>291</v>
-      </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="W20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="X20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Y20" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Z20" t="s">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="AA20" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AB20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AC20" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="AD20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AE20" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -4058,68 +3338,68 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
       </c>
       <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
         <v>52</v>
       </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" t="s">
         <v>54</v>
       </c>
-      <c r="P21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" t="s">
-        <v>44</v>
-      </c>
-      <c r="U21" t="s">
-        <v>44</v>
-      </c>
       <c r="V21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" t="s">
         <v>52</v>
       </c>
-      <c r="W21" t="s">
-        <v>44</v>
-      </c>
-      <c r="X21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>44</v>
-      </c>
       <c r="AA21" t="s">
         <v>44</v>
       </c>
@@ -4127,52 +3407,16 @@
         <v>44</v>
       </c>
       <c r="AC21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AD21" t="s">
         <v>44</v>
       </c>
       <c r="AE21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4180,130 +3424,94 @@
         <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
         <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="I22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K22" t="s">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O22" t="s">
+        <v>306</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>307</v>
+      </c>
+      <c r="R22" t="s">
+        <v>308</v>
+      </c>
+      <c r="S22" t="s">
+        <v>308</v>
+      </c>
+      <c r="T22" t="s">
+        <v>309</v>
+      </c>
+      <c r="U22" t="s">
         <v>51</v>
       </c>
-      <c r="P22" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>304</v>
-      </c>
-      <c r="R22" t="s">
-        <v>305</v>
-      </c>
-      <c r="S22" t="s">
-        <v>305</v>
-      </c>
-      <c r="T22" t="s">
-        <v>306</v>
-      </c>
-      <c r="U22" t="s">
-        <v>306</v>
-      </c>
       <c r="V22" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="W22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="X22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Y22" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z22" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="AA22" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AB22" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AC22" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AD22" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AE22" t="s">
-        <v>310</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>313</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>314</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4311,130 +3519,94 @@
         <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="M23" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="N23" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="O23" t="s">
+        <v>319</v>
+      </c>
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>320</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" t="s">
+        <v>321</v>
+      </c>
+      <c r="U23" t="s">
         <v>51</v>
       </c>
-      <c r="P23" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>318</v>
-      </c>
-      <c r="R23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T23" t="s">
-        <v>319</v>
-      </c>
-      <c r="U23" t="s">
-        <v>319</v>
-      </c>
       <c r="V23" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="W23" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="Z23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AB23" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AE23" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>323</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4442,130 +3614,94 @@
         <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
         <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J24" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K24" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O24" t="s">
+        <v>331</v>
+      </c>
+      <c r="P24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>332</v>
+      </c>
+      <c r="R24" t="s">
+        <v>333</v>
+      </c>
+      <c r="S24" t="s">
+        <v>333</v>
+      </c>
+      <c r="T24" t="s">
+        <v>334</v>
+      </c>
+      <c r="U24" t="s">
         <v>51</v>
       </c>
-      <c r="P24" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>329</v>
-      </c>
-      <c r="R24" t="s">
-        <v>330</v>
-      </c>
-      <c r="S24" t="s">
-        <v>330</v>
-      </c>
-      <c r="T24" t="s">
-        <v>331</v>
-      </c>
-      <c r="U24" t="s">
-        <v>331</v>
-      </c>
       <c r="V24" t="s">
-        <v>49</v>
+        <v>335</v>
       </c>
       <c r="W24" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X24" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y24" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Z24" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="AA24" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AB24" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AC24" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="AD24" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AE24" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>338</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>338</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>339</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>339</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4582,68 +3718,68 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>1</v>
       </c>
       <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
         <v>48</v>
       </c>
-      <c r="I25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
         <v>50</v>
       </c>
-      <c r="P25" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" t="s">
-        <v>1</v>
-      </c>
-      <c r="U25" t="s">
-        <v>1</v>
-      </c>
       <c r="V25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
         <v>48</v>
       </c>
-      <c r="W25" t="s">
-        <v>1</v>
-      </c>
-      <c r="X25" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>1</v>
-      </c>
       <c r="AA25" t="s">
         <v>1</v>
       </c>
@@ -4651,48 +3787,12 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="s">
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="s">
         <v>43</v>
       </c>
     </row>
